--- a/2시10분/대사집/4장 대사 엑셀 파일.xlsx
+++ b/2시10분/대사집/4장 대사 엑셀 파일.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liter\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c0248/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4726DD08-2882-4278-99FA-7AC0D473746C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F27303-0A98-F047-8897-A8FEFBFAF380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{89124BB1-91D6-4442-9B5A-F0A7A28458CA}"/>
+    <workbookView xWindow="9140" yWindow="680" windowWidth="23260" windowHeight="13180" xr2:uid="{89124BB1-91D6-4442-9B5A-F0A7A28458CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>인물</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>(무엇을</t>
     </r>
@@ -1348,39 +1344,6 @@
   <si>
     <r>
       <t>어서오세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>안녕하세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, E </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부인</t>
     </r>
     <r>
       <rPr>
@@ -2219,212 +2182,336 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E</t>
+    <r>
+      <t>좋은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각이에요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>좋은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생각이에요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지내셨어요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
   <si>
     <r>
-      <t>그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동안</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>잘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지내셨어요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
+      <t>너무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피곤한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나머지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>곧장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉬었어요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
     <r>
-      <t>너무</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피곤한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나머지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>곧장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>집에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가서</t>
+      <t>아니요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그날은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알바생에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽃집을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맡기고</t>
     </r>
     <r>
       <rPr>
@@ -2457,125 +2544,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">E </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부인도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피곤하셨을텐데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일하셨나요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>아니요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>저도</t>
     </r>
     <r>
@@ -2595,115 +2563,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>그날은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알바생에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>꽃집을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맡기고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쉬었어요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>저도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>참</t>
     </r>
     <r>
@@ -2781,192 +2640,6 @@
         <charset val="129"/>
       </rPr>
       <t>않아서….</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>그</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>후</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쉽게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>키울</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화분을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천해줬고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3197,423 +2870,487 @@
     </r>
   </si>
   <si>
-    <t>서술</t>
+    <r>
+      <t>방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물건을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주제로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대화가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우리 집에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오랜만이지?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앉아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>방</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>안의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물건을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택하면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주제로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대화가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>우리 집에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>건</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오랜만이지?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>편한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>앉아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
+      <t>연극</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정말</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최고였어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주인공이 … .</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>나는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>따라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>침대에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>앉아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>둘러보았다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>연극</t>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽃의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뭔가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽃인데</t>
     </r>
     <r>
       <rPr>
@@ -3651,180 +3388,172 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>최고였어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>남자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주인공이 … .</t>
+      <t>화려하네요.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>헤어지고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> E </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부인이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>꽃집으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>향했다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
+      <t>나도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가끔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그런</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하곤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -3832,260 +3561,127 @@
   </si>
   <si>
     <r>
-      <t>이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>꽃의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뭔가요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>처음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>꽃인데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정말</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화려하네요.</t>
+      <t>아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? 옛날에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 내가 가지고 놀던 건데</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>다음 날</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>친구인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>집을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방문했다</t>
+      <t>방</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리하다가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나와서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사촌동생</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주려고</t>
     </r>
     <r>
       <rPr>
@@ -4100,518 +3696,902 @@
   </si>
   <si>
     <r>
-      <t>나도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가끔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그때</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사진들을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그런</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생각을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하곤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
+      <t>사실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도서관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>키울만한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화분으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋을지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물어보고 싶었는데</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이거</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>? 옛날에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 내가 가지고 놀던 건데</t>
+      <t>다음 날</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>친구인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 엠버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방문했다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>방</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정리하다가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나와서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사촌동생</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주려고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>엠버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>사실</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도서관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>행사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>집에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>키울만한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화분으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어떤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>좋을지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>물어보고 싶었는데</t>
+      <t>나는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 엠버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>침대에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앉아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>둘러보았다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>릴리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>안녕하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, 릴리 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">릴리 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부인도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피곤하셨을텐데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일하셨나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 릴리부인은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉽게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>키울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화분을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천해줬고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 엠버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헤어지고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 릴리 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부인이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽃집으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향했다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4620,7 +4600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5082,13 +5062,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B39A67-9A55-41DC-AD3E-A9F64453FF0B}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5096,309 +5076,332 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>44</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>19</v>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B51" s="4" t="s">
-        <v>49</v>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B52" s="1" t="s">
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B53" s="2" t="s">
+    <row r="59" spans="1:2">
+      <c r="B59" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B55" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B59" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
